--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2079.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2079.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.157295866067742</v>
+        <v>1.570003509521484</v>
       </c>
       <c r="B1">
-        <v>3.536633539528301</v>
+        <v>3.711336374282837</v>
       </c>
       <c r="C1">
-        <v>3.711882722237224</v>
+        <v>3.268029928207397</v>
       </c>
       <c r="D1">
-        <v>3.559463702623887</v>
+        <v>3.535899639129639</v>
       </c>
       <c r="E1">
-        <v>1.182699213811234</v>
+        <v>1.453612804412842</v>
       </c>
     </row>
   </sheetData>
